--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19573935963311</v>
+        <v>3.533508</v>
       </c>
       <c r="H2">
-        <v>2.19573935963311</v>
+        <v>10.600524</v>
       </c>
       <c r="I2">
-        <v>0.01484544306988871</v>
+        <v>0.0236509744414791</v>
       </c>
       <c r="J2">
-        <v>0.01484544306988871</v>
+        <v>0.02365097444147911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N2">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O2">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P2">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q2">
-        <v>0.4330922930689278</v>
+        <v>0.746876408124</v>
       </c>
       <c r="R2">
-        <v>0.4330922930689278</v>
+        <v>6.721887673116</v>
       </c>
       <c r="S2">
-        <v>0.0005314066556470844</v>
+        <v>0.0008977855510028083</v>
       </c>
       <c r="T2">
-        <v>0.0005314066556470844</v>
+        <v>0.0008977855510028083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19573935963311</v>
+        <v>3.533508</v>
       </c>
       <c r="H3">
-        <v>2.19573935963311</v>
+        <v>10.600524</v>
       </c>
       <c r="I3">
-        <v>0.01484544306988871</v>
+        <v>0.0236509744414791</v>
       </c>
       <c r="J3">
-        <v>0.01484544306988871</v>
+        <v>0.02365097444147911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N3">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P3">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q3">
-        <v>3.488950224539095</v>
+        <v>5.616526277868</v>
       </c>
       <c r="R3">
-        <v>3.488950224539095</v>
+        <v>50.54873650081201</v>
       </c>
       <c r="S3">
-        <v>0.004280961356766483</v>
+        <v>0.006751366202291806</v>
       </c>
       <c r="T3">
-        <v>0.004280961356766483</v>
+        <v>0.006751366202291805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19573935963311</v>
+        <v>3.533508</v>
       </c>
       <c r="H4">
-        <v>2.19573935963311</v>
+        <v>10.600524</v>
       </c>
       <c r="I4">
-        <v>0.01484544306988871</v>
+        <v>0.0236509744414791</v>
       </c>
       <c r="J4">
-        <v>0.01484544306988871</v>
+        <v>0.02365097444147911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N4">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P4">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q4">
-        <v>8.176878172298096</v>
+        <v>13.312069724712</v>
       </c>
       <c r="R4">
-        <v>8.176878172298096</v>
+        <v>119.808627522408</v>
       </c>
       <c r="S4">
-        <v>0.01003307505747515</v>
+        <v>0.01600182268818449</v>
       </c>
       <c r="T4">
-        <v>0.01003307505747515</v>
+        <v>0.01600182268818449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.927640792446</v>
+        <v>133.9582823333334</v>
       </c>
       <c r="H5">
-        <v>133.927640792446</v>
+        <v>401.874847</v>
       </c>
       <c r="I5">
-        <v>0.90548778394216</v>
+        <v>0.8966284812968046</v>
       </c>
       <c r="J5">
-        <v>0.90548778394216</v>
+        <v>0.8966284812968046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N5">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O5">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P5">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q5">
-        <v>26.41617221171639</v>
+        <v>28.3147174840359</v>
       </c>
       <c r="R5">
-        <v>26.41617221171639</v>
+        <v>254.832457356323</v>
       </c>
       <c r="S5">
-        <v>0.03241279042523047</v>
+        <v>0.03403581096067179</v>
       </c>
       <c r="T5">
-        <v>0.03241279042523047</v>
+        <v>0.03403581096067178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>133.927640792446</v>
+        <v>133.9582823333334</v>
       </c>
       <c r="H6">
-        <v>133.927640792446</v>
+        <v>401.874847</v>
       </c>
       <c r="I6">
-        <v>0.90548778394216</v>
+        <v>0.8966284812968046</v>
       </c>
       <c r="J6">
-        <v>0.90548778394216</v>
+        <v>0.8966284812968046</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N6">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P6">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q6">
-        <v>212.8061649780109</v>
+        <v>212.9272702547235</v>
       </c>
       <c r="R6">
-        <v>212.8061649780109</v>
+        <v>1916.345432292511</v>
       </c>
       <c r="S6">
-        <v>0.2611143496244309</v>
+        <v>0.25595001337547</v>
       </c>
       <c r="T6">
-        <v>0.2611143496244309</v>
+        <v>0.25595001337547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>133.927640792446</v>
+        <v>133.9582823333334</v>
       </c>
       <c r="H7">
-        <v>133.927640792446</v>
+        <v>401.874847</v>
       </c>
       <c r="I7">
-        <v>0.90548778394216</v>
+        <v>0.8966284812968046</v>
       </c>
       <c r="J7">
-        <v>0.90548778394216</v>
+        <v>0.8966284812968046</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N7">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P7">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q7">
-        <v>498.7431672428169</v>
+        <v>504.6718430024749</v>
       </c>
       <c r="R7">
-        <v>498.7431672428169</v>
+        <v>4542.046587022274</v>
       </c>
       <c r="S7">
-        <v>0.6119606438924987</v>
+        <v>0.6066426569606628</v>
       </c>
       <c r="T7">
-        <v>0.6119606438924987</v>
+        <v>0.6066426569606628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.7832434021056</v>
+        <v>11.910426</v>
       </c>
       <c r="H8">
-        <v>11.7832434021056</v>
+        <v>35.731278</v>
       </c>
       <c r="I8">
-        <v>0.07966677298795127</v>
+        <v>0.07972054426171619</v>
       </c>
       <c r="J8">
-        <v>0.07966677298795127</v>
+        <v>0.07972054426171619</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N8">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O8">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P8">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q8">
-        <v>2.32415194563891</v>
+        <v>2.517502773478</v>
       </c>
       <c r="R8">
-        <v>2.32415194563891</v>
+        <v>22.657524961302</v>
       </c>
       <c r="S8">
-        <v>0.002851747381362598</v>
+        <v>0.003026173527578875</v>
       </c>
       <c r="T8">
-        <v>0.002851747381362598</v>
+        <v>0.003026173527578875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.7832434021056</v>
+        <v>11.910426</v>
       </c>
       <c r="H9">
-        <v>11.7832434021056</v>
+        <v>35.731278</v>
       </c>
       <c r="I9">
-        <v>0.07966677298795127</v>
+        <v>0.07972054426171619</v>
       </c>
       <c r="J9">
-        <v>0.07966677298795127</v>
+        <v>0.07972054426171619</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N9">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P9">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q9">
-        <v>18.72314650334659</v>
+        <v>18.931673738846</v>
       </c>
       <c r="R9">
-        <v>18.72314650334659</v>
+        <v>170.385063649614</v>
       </c>
       <c r="S9">
-        <v>0.02297340503574906</v>
+        <v>0.02275688849474732</v>
       </c>
       <c r="T9">
-        <v>0.02297340503574906</v>
+        <v>0.02275688849474731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.7832434021056</v>
+        <v>11.910426</v>
       </c>
       <c r="H10">
-        <v>11.7832434021056</v>
+        <v>35.731278</v>
       </c>
       <c r="I10">
-        <v>0.07966677298795127</v>
+        <v>0.07972054426171619</v>
       </c>
       <c r="J10">
-        <v>0.07966677298795127</v>
+        <v>0.07972054426171619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N10">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P10">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q10">
-        <v>43.8805021874965</v>
+        <v>44.871108644164</v>
       </c>
       <c r="R10">
-        <v>43.8805021874965</v>
+        <v>403.839977797476</v>
       </c>
       <c r="S10">
-        <v>0.05384162057083962</v>
+        <v>0.05393748223939001</v>
       </c>
       <c r="T10">
-        <v>0.05384162057083962</v>
+        <v>0.05393748223939001</v>
       </c>
     </row>
   </sheetData>
